--- a/Kode/Server2/Logs/lora_node1/2020-05-14.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-14.xlsx
@@ -6883,7 +6883,7 @@
         <v>0.015</v>
       </c>
       <c r="F326" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>0.015</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>0.015</v>
       </c>
       <c r="F328" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>0.03</v>
       </c>
       <c r="F329" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>0.03</v>
       </c>
       <c r="F330" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>0.045</v>
       </c>
       <c r="F331" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>0.045</v>
       </c>
       <c r="F332" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>0.045</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>0.045</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>0.045</v>
       </c>
       <c r="F335" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>0.045</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>0.045</v>
       </c>
       <c r="F337" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>0.06</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00048</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>0.045</v>
       </c>
       <c r="F339" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>0.045</v>
       </c>
       <c r="F340" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>0.03</v>
       </c>
       <c r="F341" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>0.03</v>
       </c>
       <c r="F342" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>0.015</v>
       </c>
       <c r="F343" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>0.03</v>
       </c>
       <c r="F344" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>0.015</v>
       </c>
       <c r="F345" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>0.015</v>
       </c>
       <c r="F346" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="347">
@@ -7403,7 +7403,7 @@
         <v>0.015</v>
       </c>
       <c r="F352" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="353">
@@ -7863,7 +7863,7 @@
         <v>0.015</v>
       </c>
       <c r="F375" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>0.03</v>
       </c>
       <c r="F376" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>0.045</v>
       </c>
       <c r="F377" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>0.06</v>
       </c>
       <c r="F378" t="n">
-        <v>0.00048</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>0.06</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0007199999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>0.075</v>
       </c>
       <c r="F380" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>0.075</v>
       </c>
       <c r="F381" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>0.09</v>
       </c>
       <c r="F382" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>0.06</v>
       </c>
       <c r="F383" t="n">
-        <v>0.00048</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>0.045</v>
       </c>
       <c r="F384" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>0.06</v>
       </c>
       <c r="F385" t="n">
-        <v>0.00048</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>0.09</v>
       </c>
       <c r="F386" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>0.135</v>
       </c>
       <c r="F387" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>0.165</v>
       </c>
       <c r="F388" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>0.12</v>
       </c>
       <c r="F389" t="n">
-        <v>0.00144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>0.09</v>
       </c>
       <c r="F390" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>0.105</v>
       </c>
       <c r="F391" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>0.15</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>0.18</v>
       </c>
       <c r="F393" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>0.18</v>
       </c>
       <c r="F394" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>0.18</v>
       </c>
       <c r="F395" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>0.18</v>
       </c>
       <c r="F396" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>0.18</v>
       </c>
       <c r="F397" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>0.195</v>
       </c>
       <c r="F398" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>0.225</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>0.21</v>
       </c>
       <c r="F400" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>0.195</v>
       </c>
       <c r="F401" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>0.18</v>
       </c>
       <c r="F402" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>0.135</v>
       </c>
       <c r="F403" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>0.075</v>
       </c>
       <c r="F404" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>0.06</v>
       </c>
       <c r="F405" t="n">
-        <v>0.00048</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>0.075</v>
       </c>
       <c r="F406" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>0.075</v>
       </c>
       <c r="F407" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>0.075</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>0.075</v>
       </c>
       <c r="F409" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>0.09</v>
       </c>
       <c r="F410" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>0.09</v>
       </c>
       <c r="F411" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>0.105</v>
       </c>
       <c r="F412" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>0.12</v>
       </c>
       <c r="F413" t="n">
-        <v>0.00144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>0.105</v>
       </c>
       <c r="F414" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>0.09</v>
       </c>
       <c r="F415" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>0.09</v>
       </c>
       <c r="F416" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>0.09</v>
       </c>
       <c r="F417" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>0.075</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>0.075</v>
       </c>
       <c r="F419" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>0.075</v>
       </c>
       <c r="F420" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>0.075</v>
       </c>
       <c r="F421" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>0.09</v>
       </c>
       <c r="F422" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>0.09</v>
       </c>
       <c r="F423" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>0.105</v>
       </c>
       <c r="F424" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>0.135</v>
       </c>
       <c r="F425" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>0.255</v>
       </c>
       <c r="F426" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>0.285</v>
       </c>
       <c r="F427" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>0.285</v>
       </c>
       <c r="F428" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>0.27</v>
       </c>
       <c r="F429" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>0.285</v>
       </c>
       <c r="F430" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>0.36</v>
       </c>
       <c r="F431" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>0.36</v>
       </c>
       <c r="F432" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>0.33</v>
       </c>
       <c r="F433" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>0.285</v>
       </c>
       <c r="F434" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>0.27</v>
       </c>
       <c r="F435" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>0.24</v>
       </c>
       <c r="F436" t="n">
-        <v>0.00384</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>0.285</v>
       </c>
       <c r="F437" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>0.27</v>
       </c>
       <c r="F438" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>0.285</v>
       </c>
       <c r="F439" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>0.345</v>
       </c>
       <c r="F440" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>0.375</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>0.45</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0108</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>0.51</v>
       </c>
       <c r="F443" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>0.39</v>
       </c>
       <c r="F444" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>0.42</v>
       </c>
       <c r="F445" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>0.48</v>
       </c>
       <c r="F446" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>0.405</v>
       </c>
       <c r="F447" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>0.435</v>
       </c>
       <c r="F448" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>0.195</v>
       </c>
       <c r="F449" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>0.165</v>
       </c>
       <c r="F450" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>0.165</v>
       </c>
       <c r="F451" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>0.165</v>
       </c>
       <c r="F452" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>0.15</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>0.15</v>
       </c>
       <c r="F454" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>0.165</v>
       </c>
       <c r="F455" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>0.18</v>
       </c>
       <c r="F456" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>0.24</v>
       </c>
       <c r="F457" t="n">
-        <v>0.00384</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>0.225</v>
       </c>
       <c r="F458" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>0.24</v>
       </c>
       <c r="F459" t="n">
-        <v>0.00384</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>0.3</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>0.3</v>
       </c>
       <c r="F461" t="n">
-        <v>0.006</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>0.21</v>
       </c>
       <c r="F462" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>0.33</v>
       </c>
       <c r="F463" t="n">
-        <v>0.006599999999999999</v>
+        <v>6.599999999999999</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>0.435</v>
       </c>
       <c r="F464" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>0.225</v>
       </c>
       <c r="F465" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>0.18</v>
       </c>
       <c r="F466" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>0.165</v>
       </c>
       <c r="F467" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>0.165</v>
       </c>
       <c r="F468" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>0.165</v>
       </c>
       <c r="F469" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>0.165</v>
       </c>
       <c r="F470" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>0.18</v>
       </c>
       <c r="F471" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>0.18</v>
       </c>
       <c r="F472" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>0.18</v>
       </c>
       <c r="F473" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>0.195</v>
       </c>
       <c r="F474" t="n">
-        <v>0.00234</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>0.195</v>
       </c>
       <c r="F475" t="n">
-        <v>0.00234</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>0.195</v>
       </c>
       <c r="F476" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>0.195</v>
       </c>
       <c r="F477" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>0.21</v>
       </c>
       <c r="F478" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>0.21</v>
       </c>
       <c r="F479" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>0.225</v>
       </c>
       <c r="F480" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>0.27</v>
       </c>
       <c r="F481" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>0.315</v>
       </c>
       <c r="F482" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>0.36</v>
       </c>
       <c r="F483" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>0.375</v>
       </c>
       <c r="F484" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>0.39</v>
       </c>
       <c r="F485" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>0.39</v>
       </c>
       <c r="F486" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>0.42</v>
       </c>
       <c r="F487" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>0.375</v>
       </c>
       <c r="F488" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>0.27</v>
       </c>
       <c r="F489" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>0.21</v>
       </c>
       <c r="F490" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>0.18</v>
       </c>
       <c r="F491" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>0.18</v>
       </c>
       <c r="F492" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>0.18</v>
       </c>
       <c r="F493" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>0.165</v>
       </c>
       <c r="F494" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>0.15</v>
       </c>
       <c r="F495" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>0.165</v>
       </c>
       <c r="F496" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>0.18</v>
       </c>
       <c r="F497" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>0.18</v>
       </c>
       <c r="F498" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>0.195</v>
       </c>
       <c r="F499" t="n">
-        <v>0.00234</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>0.18</v>
       </c>
       <c r="F500" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>0.18</v>
       </c>
       <c r="F501" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>0.165</v>
       </c>
       <c r="F502" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>0.165</v>
       </c>
       <c r="F503" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>0.165</v>
       </c>
       <c r="F504" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>0.165</v>
       </c>
       <c r="F505" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>0.15</v>
       </c>
       <c r="F506" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>0.165</v>
       </c>
       <c r="F507" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>0.18</v>
       </c>
       <c r="F508" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>0.195</v>
       </c>
       <c r="F509" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>0.225</v>
       </c>
       <c r="F510" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>0.21</v>
       </c>
       <c r="F511" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>0.18</v>
       </c>
       <c r="F512" t="n">
-        <v>0.00288</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>0.18</v>
       </c>
       <c r="F513" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>0.15</v>
       </c>
       <c r="F514" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>0.135</v>
       </c>
       <c r="F515" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>0.12</v>
       </c>
       <c r="F516" t="n">
-        <v>0.00144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>0.105</v>
       </c>
       <c r="F517" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>0.105</v>
       </c>
       <c r="F518" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>0.12</v>
       </c>
       <c r="F519" t="n">
-        <v>0.00144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>0.12</v>
       </c>
       <c r="F520" t="n">
-        <v>0.00144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>0.165</v>
       </c>
       <c r="F521" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>0.18</v>
       </c>
       <c r="F522" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>0.18</v>
       </c>
       <c r="F523" t="n">
-        <v>0.00288</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>0.21</v>
       </c>
       <c r="F524" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>0.345</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0069</v>
+        <v>6.899999999999999</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0189</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>0.945</v>
       </c>
       <c r="F527" t="n">
-        <v>0.03402</v>
+        <v>34.02</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>0.465</v>
       </c>
       <c r="F528" t="n">
-        <v>0.01116</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>0.33</v>
       </c>
       <c r="F529" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>0.33</v>
       </c>
       <c r="F530" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>0.36</v>
       </c>
       <c r="F531" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>0.42</v>
       </c>
       <c r="F532" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>0.495</v>
       </c>
       <c r="F533" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>0.615</v>
       </c>
       <c r="F534" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F535" t="n">
-        <v>0.02592</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>0.645</v>
       </c>
       <c r="F536" t="n">
-        <v>0.01806</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>0.405</v>
       </c>
       <c r="F537" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>0.525</v>
       </c>
       <c r="F538" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F539" t="n">
-        <v>0.01932</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>0.825</v>
       </c>
       <c r="F540" t="n">
-        <v>0.0264</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>0.645</v>
       </c>
       <c r="F541" t="n">
-        <v>0.01806</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>0.465</v>
       </c>
       <c r="F542" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>0.45</v>
       </c>
       <c r="F543" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>0.465</v>
       </c>
       <c r="F544" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>0.72</v>
       </c>
       <c r="F545" t="n">
-        <v>0.02304</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>0.975</v>
       </c>
       <c r="F546" t="n">
-        <v>0.039</v>
+        <v>39</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>0.855</v>
       </c>
       <c r="F547" t="n">
-        <v>0.03078</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>0.615</v>
       </c>
       <c r="F548" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>0.645</v>
       </c>
       <c r="F549" t="n">
-        <v>0.01806</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F550" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>0.45</v>
       </c>
       <c r="F551" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>0.42</v>
       </c>
       <c r="F552" t="n">
-        <v>0.01008</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>0.495</v>
       </c>
       <c r="F553" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>0.48</v>
       </c>
       <c r="F554" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>0.495</v>
       </c>
       <c r="F555" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>0.51</v>
       </c>
       <c r="F556" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>0.615</v>
       </c>
       <c r="F557" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>0.705</v>
       </c>
       <c r="F558" t="n">
-        <v>0.02256</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>0.78</v>
       </c>
       <c r="F559" t="n">
-        <v>0.02496</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F560" t="n">
-        <v>0.01932</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F561" t="n">
-        <v>0.01932</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>0.72</v>
       </c>
       <c r="F562" t="n">
-        <v>0.02304</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>0.705</v>
       </c>
       <c r="F563" t="n">
-        <v>0.01974</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>0.765</v>
       </c>
       <c r="F564" t="n">
-        <v>0.02448</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>0.705</v>
       </c>
       <c r="F565" t="n">
-        <v>0.01974</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>0.78</v>
       </c>
       <c r="F566" t="n">
-        <v>0.02496</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>0.525</v>
       </c>
       <c r="F567" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>0.615</v>
       </c>
       <c r="F568" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F569" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F570" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>0.42</v>
       </c>
       <c r="F571" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>0.405</v>
       </c>
       <c r="F572" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>0.36</v>
       </c>
       <c r="F573" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>0.345</v>
       </c>
       <c r="F574" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>0.315</v>
       </c>
       <c r="F575" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>0.315</v>
       </c>
       <c r="F576" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>0.33</v>
       </c>
       <c r="F577" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>0.36</v>
       </c>
       <c r="F578" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>0.375</v>
       </c>
       <c r="F579" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>0.42</v>
       </c>
       <c r="F580" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>0.48</v>
       </c>
       <c r="F581" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>0.495</v>
       </c>
       <c r="F582" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F583" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>0.495</v>
       </c>
       <c r="F584" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>0.57</v>
       </c>
       <c r="F585" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>0.6</v>
       </c>
       <c r="F586" t="n">
-        <v>0.0168</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>0.54</v>
       </c>
       <c r="F587" t="n">
-        <v>0.01296</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>0.525</v>
       </c>
       <c r="F588" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>0.495</v>
       </c>
       <c r="F589" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>0.465</v>
       </c>
       <c r="F590" t="n">
-        <v>0.01116</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>0.465</v>
       </c>
       <c r="F591" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>0.45</v>
       </c>
       <c r="F592" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>0.39</v>
       </c>
       <c r="F593" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>0.375</v>
       </c>
       <c r="F594" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>0.33</v>
       </c>
       <c r="F595" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>0.3</v>
       </c>
       <c r="F596" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>0.285</v>
       </c>
       <c r="F597" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>0.285</v>
       </c>
       <c r="F598" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>0.285</v>
       </c>
       <c r="F599" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>0.285</v>
       </c>
       <c r="F600" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>0.285</v>
       </c>
       <c r="F601" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>0.27</v>
       </c>
       <c r="F602" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>0.255</v>
       </c>
       <c r="F603" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12443,7 @@
         <v>0.255</v>
       </c>
       <c r="F604" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12463,7 @@
         <v>0.225</v>
       </c>
       <c r="F605" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12483,7 @@
         <v>0.21</v>
       </c>
       <c r="F606" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12503,7 @@
         <v>0.21</v>
       </c>
       <c r="F607" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12523,7 @@
         <v>0.255</v>
       </c>
       <c r="F608" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12543,7 @@
         <v>0.285</v>
       </c>
       <c r="F609" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12563,7 @@
         <v>0.285</v>
       </c>
       <c r="F610" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12583,7 @@
         <v>0.285</v>
       </c>
       <c r="F611" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12603,7 @@
         <v>0.27</v>
       </c>
       <c r="F612" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12623,7 @@
         <v>0.21</v>
       </c>
       <c r="F613" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12643,7 @@
         <v>0.18</v>
       </c>
       <c r="F614" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12663,7 @@
         <v>0.165</v>
       </c>
       <c r="F615" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12683,7 @@
         <v>0.165</v>
       </c>
       <c r="F616" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12703,7 @@
         <v>0.18</v>
       </c>
       <c r="F617" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12723,7 @@
         <v>0.18</v>
       </c>
       <c r="F618" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12743,7 @@
         <v>0.225</v>
       </c>
       <c r="F619" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12763,7 @@
         <v>0.3</v>
       </c>
       <c r="F620" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12783,7 @@
         <v>0.375</v>
       </c>
       <c r="F621" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12803,7 @@
         <v>0.39</v>
       </c>
       <c r="F622" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12823,7 @@
         <v>0.375</v>
       </c>
       <c r="F623" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12843,7 @@
         <v>0.36</v>
       </c>
       <c r="F624" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12863,7 @@
         <v>0.315</v>
       </c>
       <c r="F625" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12883,7 @@
         <v>0.315</v>
       </c>
       <c r="F626" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12903,7 @@
         <v>0.315</v>
       </c>
       <c r="F627" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12923,7 @@
         <v>0.33</v>
       </c>
       <c r="F628" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12943,7 @@
         <v>0.36</v>
       </c>
       <c r="F629" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12963,7 @@
         <v>0.375</v>
       </c>
       <c r="F630" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12983,7 @@
         <v>0.39</v>
       </c>
       <c r="F631" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13003,7 @@
         <v>0.42</v>
       </c>
       <c r="F632" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13023,7 @@
         <v>0.45</v>
       </c>
       <c r="F633" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13043,7 @@
         <v>0.465</v>
       </c>
       <c r="F634" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13063,7 @@
         <v>0.48</v>
       </c>
       <c r="F635" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="636">
@@ -13083,7 +13083,7 @@
         <v>0.48</v>
       </c>
       <c r="F636" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="637">
@@ -13103,7 +13103,7 @@
         <v>0.525</v>
       </c>
       <c r="F637" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="638">
@@ -13123,7 +13123,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F638" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="639">
@@ -13143,7 +13143,7 @@
         <v>0.57</v>
       </c>
       <c r="F639" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="640">
@@ -13163,7 +13163,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F640" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="641">
@@ -13183,7 +13183,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F641" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="642">
@@ -13203,7 +13203,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F642" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="643">
@@ -13223,7 +13223,7 @@
         <v>0.51</v>
       </c>
       <c r="F643" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="644">
@@ -13243,7 +13243,7 @@
         <v>0.48</v>
       </c>
       <c r="F644" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="645">
@@ -13263,7 +13263,7 @@
         <v>0.465</v>
       </c>
       <c r="F645" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="646">
@@ -13283,7 +13283,7 @@
         <v>0.45</v>
       </c>
       <c r="F646" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="647">
@@ -13303,7 +13303,7 @@
         <v>0.45</v>
       </c>
       <c r="F647" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="648">
@@ -13323,7 +13323,7 @@
         <v>0.45</v>
       </c>
       <c r="F648" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="649">
@@ -13343,7 +13343,7 @@
         <v>0.45</v>
       </c>
       <c r="F649" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="650">
@@ -13363,7 +13363,7 @@
         <v>0.45</v>
       </c>
       <c r="F650" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="651">
@@ -13383,7 +13383,7 @@
         <v>0.45</v>
       </c>
       <c r="F651" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="652">
@@ -13403,7 +13403,7 @@
         <v>0.465</v>
       </c>
       <c r="F652" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="653">
@@ -13423,7 +13423,7 @@
         <v>0.45</v>
       </c>
       <c r="F653" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654">
@@ -13443,7 +13443,7 @@
         <v>0.45</v>
       </c>
       <c r="F654" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="655">
@@ -13463,7 +13463,7 @@
         <v>0.465</v>
       </c>
       <c r="F655" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="656">
@@ -13483,7 +13483,7 @@
         <v>0.45</v>
       </c>
       <c r="F656" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657">
@@ -13503,7 +13503,7 @@
         <v>0.465</v>
       </c>
       <c r="F657" t="n">
-        <v>0.01116</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13523,7 @@
         <v>0.57</v>
       </c>
       <c r="F658" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13543,7 @@
         <v>0.75</v>
       </c>
       <c r="F659" t="n">
-        <v>0.024</v>
+        <v>24</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13563,7 @@
         <v>1.05</v>
       </c>
       <c r="F660" t="n">
-        <v>0.042</v>
+        <v>42</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13583,7 @@
         <v>0.78</v>
       </c>
       <c r="F661" t="n">
-        <v>0.02496</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13603,7 @@
         <v>0.855</v>
       </c>
       <c r="F662" t="n">
-        <v>0.03078</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13623,7 @@
         <v>0.735</v>
       </c>
       <c r="F663" t="n">
-        <v>0.02352</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13643,7 @@
         <v>1.275</v>
       </c>
       <c r="F664" t="n">
-        <v>0.0612</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13663,7 @@
         <v>1.575</v>
       </c>
       <c r="F665" t="n">
-        <v>0.0882</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13683,7 @@
         <v>1.515</v>
       </c>
       <c r="F666" t="n">
-        <v>0.08484</v>
+        <v>84.84</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13703,7 @@
         <v>1.575</v>
       </c>
       <c r="F667" t="n">
-        <v>0.0882</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="668">
@@ -13723,7 +13723,7 @@
         <v>1.755</v>
       </c>
       <c r="F668" t="n">
-        <v>0.11232</v>
+        <v>112.32</v>
       </c>
     </row>
     <row r="669">
@@ -13743,7 +13743,7 @@
         <v>0.945</v>
       </c>
       <c r="F669" t="n">
-        <v>0.03402</v>
+        <v>34.02</v>
       </c>
     </row>
     <row r="670">
@@ -13763,7 +13763,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F670" t="n">
-        <v>0.02544</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="671">
@@ -13783,7 +13783,7 @@
         <v>0.885</v>
       </c>
       <c r="F671" t="n">
-        <v>0.03186000000000001</v>
+        <v>31.86000000000001</v>
       </c>
     </row>
     <row r="672">
@@ -13803,7 +13803,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F672" t="n">
-        <v>0.01848</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="673">
@@ -13823,7 +13823,7 @@
         <v>0.6</v>
       </c>
       <c r="F673" t="n">
-        <v>0.0168</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="674">
@@ -13843,7 +13843,7 @@
         <v>0.57</v>
       </c>
       <c r="F674" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="675">
@@ -13863,7 +13863,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F675" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="676">
@@ -13883,7 +13883,7 @@
         <v>0.57</v>
       </c>
       <c r="F676" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="677">
@@ -13903,7 +13903,7 @@
         <v>0.51</v>
       </c>
       <c r="F677" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="678">
@@ -13923,7 +13923,7 @@
         <v>0.48</v>
       </c>
       <c r="F678" t="n">
-        <v>0.009599999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="679">
@@ -13943,7 +13943,7 @@
         <v>0.495</v>
       </c>
       <c r="F679" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="680">
@@ -13963,7 +13963,7 @@
         <v>0.45</v>
       </c>
       <c r="F680" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="681">
@@ -13983,7 +13983,7 @@
         <v>0.42</v>
       </c>
       <c r="F681" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="682">
@@ -14003,7 +14003,7 @@
         <v>0.585</v>
       </c>
       <c r="F682" t="n">
-        <v>0.01638</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="683">
@@ -14023,7 +14023,7 @@
         <v>0.405</v>
       </c>
       <c r="F683" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="684">
@@ -14043,7 +14043,7 @@
         <v>0.54</v>
       </c>
       <c r="F684" t="n">
-        <v>0.01296</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="685">
@@ -14063,7 +14063,7 @@
         <v>0.57</v>
       </c>
       <c r="F685" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="686">
@@ -14083,7 +14083,7 @@
         <v>0.45</v>
       </c>
       <c r="F686" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="687">
@@ -14103,7 +14103,7 @@
         <v>0.405</v>
       </c>
       <c r="F687" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="688">
@@ -14123,7 +14123,7 @@
         <v>0.42</v>
       </c>
       <c r="F688" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="689">
@@ -14143,7 +14143,7 @@
         <v>0.735</v>
       </c>
       <c r="F689" t="n">
-        <v>0.02352</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="690">
@@ -14163,7 +14163,7 @@
         <v>1.11</v>
       </c>
       <c r="F690" t="n">
-        <v>0.0444</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="691">
@@ -14183,7 +14183,7 @@
         <v>1.32</v>
       </c>
       <c r="F691" t="n">
-        <v>0.06336</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="692">
@@ -14203,7 +14203,7 @@
         <v>1.575</v>
       </c>
       <c r="F692" t="n">
-        <v>0.0882</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="693">
@@ -14223,7 +14223,7 @@
         <v>1.455</v>
       </c>
       <c r="F693" t="n">
-        <v>0.07566000000000001</v>
+        <v>75.66000000000001</v>
       </c>
     </row>
     <row r="694">
@@ -14243,7 +14243,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F694" t="n">
-        <v>0.03294</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="695">
@@ -14263,7 +14263,7 @@
         <v>0.585</v>
       </c>
       <c r="F695" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="696">
@@ -14283,7 +14283,7 @@
         <v>0.405</v>
       </c>
       <c r="F696" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="697">
@@ -14303,7 +14303,7 @@
         <v>0.615</v>
       </c>
       <c r="F697" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="698">
@@ -14323,7 +14323,7 @@
         <v>0.765</v>
       </c>
       <c r="F698" t="n">
-        <v>0.02448</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="699">
@@ -14343,7 +14343,7 @@
         <v>0.78</v>
       </c>
       <c r="F699" t="n">
-        <v>0.02496</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="700">
@@ -14363,7 +14363,7 @@
         <v>0.72</v>
       </c>
       <c r="F700" t="n">
-        <v>0.02016</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="701">
@@ -14383,7 +14383,7 @@
         <v>0.975</v>
       </c>
       <c r="F701" t="n">
-        <v>0.03510000000000001</v>
+        <v>35.10000000000002</v>
       </c>
     </row>
     <row r="702">
@@ -14403,7 +14403,7 @@
         <v>0.6</v>
       </c>
       <c r="F702" t="n">
-        <v>0.0168</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="703">
@@ -14423,7 +14423,7 @@
         <v>0.375</v>
       </c>
       <c r="F703" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="704">
@@ -14443,7 +14443,7 @@
         <v>0.255</v>
       </c>
       <c r="F704" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="705">
@@ -14463,7 +14463,7 @@
         <v>0.195</v>
       </c>
       <c r="F705" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="706">
@@ -14483,7 +14483,7 @@
         <v>0.18</v>
       </c>
       <c r="F706" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="707">
@@ -14503,7 +14503,7 @@
         <v>0.18</v>
       </c>
       <c r="F707" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="708">
@@ -14523,7 +14523,7 @@
         <v>0.18</v>
       </c>
       <c r="F708" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="709">
@@ -14543,7 +14543,7 @@
         <v>0.21</v>
       </c>
       <c r="F709" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="710">
@@ -14563,7 +14563,7 @@
         <v>0.21</v>
       </c>
       <c r="F710" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="711">
@@ -14583,7 +14583,7 @@
         <v>0.195</v>
       </c>
       <c r="F711" t="n">
-        <v>0.00234</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="712">
@@ -14603,7 +14603,7 @@
         <v>0.18</v>
       </c>
       <c r="F712" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="713">
@@ -14623,7 +14623,7 @@
         <v>0.195</v>
       </c>
       <c r="F713" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="714">
@@ -14643,7 +14643,7 @@
         <v>0.345</v>
       </c>
       <c r="F714" t="n">
-        <v>0.0069</v>
+        <v>6.899999999999999</v>
       </c>
     </row>
     <row r="715">
@@ -14663,7 +14663,7 @@
         <v>0.495</v>
       </c>
       <c r="F715" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="716">
@@ -14683,7 +14683,7 @@
         <v>0.615</v>
       </c>
       <c r="F716" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="717">
@@ -14703,7 +14703,7 @@
         <v>0.51</v>
       </c>
       <c r="F717" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="718">
@@ -14723,7 +14723,7 @@
         <v>0.48</v>
       </c>
       <c r="F718" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="719">
@@ -14743,7 +14743,7 @@
         <v>0.585</v>
       </c>
       <c r="F719" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="720">
@@ -14763,7 +14763,7 @@
         <v>0.78</v>
       </c>
       <c r="F720" t="n">
-        <v>0.02496</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="721">
@@ -14783,7 +14783,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F721" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="722">
@@ -14803,7 +14803,7 @@
         <v>0.45</v>
       </c>
       <c r="F722" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="723">
@@ -14823,7 +14823,7 @@
         <v>0.405</v>
       </c>
       <c r="F723" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="724">
@@ -14843,7 +14843,7 @@
         <v>0.39</v>
       </c>
       <c r="F724" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="725">
@@ -14863,7 +14863,7 @@
         <v>0.405</v>
       </c>
       <c r="F725" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="726">
@@ -14883,7 +14883,7 @@
         <v>0.405</v>
       </c>
       <c r="F726" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="727">
@@ -14903,7 +14903,7 @@
         <v>0.39</v>
       </c>
       <c r="F727" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="728">
@@ -14923,7 +14923,7 @@
         <v>0.42</v>
       </c>
       <c r="F728" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="729">
@@ -14943,7 +14943,7 @@
         <v>0.39</v>
       </c>
       <c r="F729" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="730">
@@ -14963,7 +14963,7 @@
         <v>0.27</v>
       </c>
       <c r="F730" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="731">
@@ -14983,7 +14983,7 @@
         <v>0.225</v>
       </c>
       <c r="F731" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="732">
@@ -15003,7 +15003,7 @@
         <v>0.21</v>
       </c>
       <c r="F732" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="733">
@@ -15023,7 +15023,7 @@
         <v>0.225</v>
       </c>
       <c r="F733" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="734">
@@ -15043,7 +15043,7 @@
         <v>0.255</v>
       </c>
       <c r="F734" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="735">
@@ -15063,7 +15063,7 @@
         <v>0.285</v>
       </c>
       <c r="F735" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="736">
@@ -15083,7 +15083,7 @@
         <v>0.3</v>
       </c>
       <c r="F736" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="737">
@@ -15103,7 +15103,7 @@
         <v>0.36</v>
       </c>
       <c r="F737" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="738">
@@ -15123,7 +15123,7 @@
         <v>0.405</v>
       </c>
       <c r="F738" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="739">
@@ -15143,7 +15143,7 @@
         <v>0.435</v>
       </c>
       <c r="F739" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="740">
@@ -15163,7 +15163,7 @@
         <v>0.465</v>
       </c>
       <c r="F740" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="741">
@@ -15183,7 +15183,7 @@
         <v>0.45</v>
       </c>
       <c r="F741" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="742">
@@ -15203,7 +15203,7 @@
         <v>0.36</v>
       </c>
       <c r="F742" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="743">
@@ -15223,7 +15223,7 @@
         <v>0.3</v>
       </c>
       <c r="F743" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="744">
@@ -15243,7 +15243,7 @@
         <v>0.285</v>
       </c>
       <c r="F744" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="745">
@@ -15263,7 +15263,7 @@
         <v>0.27</v>
       </c>
       <c r="F745" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="746">
@@ -15283,7 +15283,7 @@
         <v>0.27</v>
       </c>
       <c r="F746" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="747">
@@ -15303,7 +15303,7 @@
         <v>0.285</v>
       </c>
       <c r="F747" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="748">
@@ -15323,7 +15323,7 @@
         <v>0.285</v>
       </c>
       <c r="F748" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="749">
@@ -15343,7 +15343,7 @@
         <v>0.27</v>
       </c>
       <c r="F749" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="750">
@@ -15363,7 +15363,7 @@
         <v>0.255</v>
       </c>
       <c r="F750" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="751">
@@ -15383,7 +15383,7 @@
         <v>0.255</v>
       </c>
       <c r="F751" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="752">
@@ -15403,7 +15403,7 @@
         <v>0.255</v>
       </c>
       <c r="F752" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="753">
@@ -15423,7 +15423,7 @@
         <v>0.225</v>
       </c>
       <c r="F753" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="754">
@@ -15443,7 +15443,7 @@
         <v>0.18</v>
       </c>
       <c r="F754" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="755">
@@ -15463,7 +15463,7 @@
         <v>0.165</v>
       </c>
       <c r="F755" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="756">
@@ -15483,7 +15483,7 @@
         <v>0.15</v>
       </c>
       <c r="F756" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="757">
@@ -15503,7 +15503,7 @@
         <v>0.135</v>
       </c>
       <c r="F757" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="758">
@@ -15523,7 +15523,7 @@
         <v>0.105</v>
       </c>
       <c r="F758" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="759">
@@ -15543,7 +15543,7 @@
         <v>0.09</v>
       </c>
       <c r="F759" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="760">
@@ -15563,7 +15563,7 @@
         <v>0.105</v>
       </c>
       <c r="F760" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="761">
@@ -15583,7 +15583,7 @@
         <v>0.165</v>
       </c>
       <c r="F761" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="762">
@@ -15603,7 +15603,7 @@
         <v>0.18</v>
       </c>
       <c r="F762" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="763">
@@ -15623,7 +15623,7 @@
         <v>0.18</v>
       </c>
       <c r="F763" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="764">
@@ -15643,7 +15643,7 @@
         <v>0.21</v>
       </c>
       <c r="F764" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="765">
@@ -15663,7 +15663,7 @@
         <v>0.255</v>
       </c>
       <c r="F765" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="766">
@@ -15683,7 +15683,7 @@
         <v>0.33</v>
       </c>
       <c r="F766" t="n">
-        <v>0.006599999999999999</v>
+        <v>6.599999999999999</v>
       </c>
     </row>
     <row r="767">
@@ -15703,7 +15703,7 @@
         <v>0.435</v>
       </c>
       <c r="F767" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="768">
@@ -15723,7 +15723,7 @@
         <v>0.39</v>
       </c>
       <c r="F768" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="769">
@@ -15743,7 +15743,7 @@
         <v>0.36</v>
       </c>
       <c r="F769" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="770">
@@ -15763,7 +15763,7 @@
         <v>0.33</v>
       </c>
       <c r="F770" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="771">
@@ -15783,7 +15783,7 @@
         <v>0.345</v>
       </c>
       <c r="F771" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="772">
@@ -15803,7 +15803,7 @@
         <v>0.375</v>
       </c>
       <c r="F772" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="773">
@@ -15823,7 +15823,7 @@
         <v>0.42</v>
       </c>
       <c r="F773" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="774">
@@ -15843,7 +15843,7 @@
         <v>0.48</v>
       </c>
       <c r="F774" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="775">
@@ -15863,7 +15863,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F775" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="776">
@@ -15883,7 +15883,7 @@
         <v>0.825</v>
       </c>
       <c r="F776" t="n">
-        <v>0.0264</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="777">
@@ -15903,7 +15903,7 @@
         <v>1.065</v>
       </c>
       <c r="F777" t="n">
-        <v>0.0426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="778">
@@ -15923,7 +15923,7 @@
         <v>0.96</v>
       </c>
       <c r="F778" t="n">
-        <v>0.03456</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="779">
@@ -15943,7 +15943,7 @@
         <v>0.615</v>
       </c>
       <c r="F779" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="780">
@@ -15963,7 +15963,7 @@
         <v>0.375</v>
       </c>
       <c r="F780" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="781">
@@ -15983,7 +15983,7 @@
         <v>0.225</v>
       </c>
       <c r="F781" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="782">
@@ -16003,7 +16003,7 @@
         <v>0.15</v>
       </c>
       <c r="F782" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="783">
@@ -16023,7 +16023,7 @@
         <v>0.075</v>
       </c>
       <c r="F783" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="784">
@@ -16043,7 +16043,7 @@
         <v>0.045</v>
       </c>
       <c r="F784" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="785">
@@ -16063,7 +16063,7 @@
         <v>0.03</v>
       </c>
       <c r="F785" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="786">
@@ -16083,7 +16083,7 @@
         <v>0.03</v>
       </c>
       <c r="F786" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="787">
@@ -16103,7 +16103,7 @@
         <v>0.03</v>
       </c>
       <c r="F787" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="788">
@@ -16123,7 +16123,7 @@
         <v>0.045</v>
       </c>
       <c r="F788" t="n">
-        <v>0.00036</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="789">
@@ -16143,7 +16143,7 @@
         <v>0.075</v>
       </c>
       <c r="F789" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="790">
@@ -16163,7 +16163,7 @@
         <v>0.075</v>
       </c>
       <c r="F790" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="791">
@@ -16183,7 +16183,7 @@
         <v>0.09</v>
       </c>
       <c r="F791" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="792">
@@ -16203,7 +16203,7 @@
         <v>0.12</v>
       </c>
       <c r="F792" t="n">
-        <v>0.00144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="793">
@@ -16223,7 +16223,7 @@
         <v>0.18</v>
       </c>
       <c r="F793" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="794">
@@ -16243,7 +16243,7 @@
         <v>0.27</v>
       </c>
       <c r="F794" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="795">
@@ -16263,7 +16263,7 @@
         <v>0.39</v>
       </c>
       <c r="F795" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="796">
@@ -16283,7 +16283,7 @@
         <v>0.51</v>
       </c>
       <c r="F796" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="797">
@@ -16303,7 +16303,7 @@
         <v>0.615</v>
       </c>
       <c r="F797" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="798">
@@ -16323,7 +16323,7 @@
         <v>0.57</v>
       </c>
       <c r="F798" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="799">
@@ -16343,7 +16343,7 @@
         <v>0.615</v>
       </c>
       <c r="F799" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="800">
@@ -16363,7 +16363,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F800" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="801">
@@ -16383,7 +16383,7 @@
         <v>0.54</v>
       </c>
       <c r="F801" t="n">
-        <v>0.01296</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="802">
@@ -16403,7 +16403,7 @@
         <v>0.525</v>
       </c>
       <c r="F802" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="803">
@@ -16423,7 +16423,7 @@
         <v>0.84</v>
       </c>
       <c r="F803" t="n">
-        <v>0.02688</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="804">
@@ -16443,7 +16443,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F804" t="n">
-        <v>0.03294</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="805">
@@ -16463,7 +16463,7 @@
         <v>1.035</v>
       </c>
       <c r="F805" t="n">
-        <v>0.0414</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="806">
@@ -16483,7 +16483,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="F806" t="n">
-        <v>0.03348</v>
+        <v>33.48</v>
       </c>
     </row>
     <row r="807">
@@ -16503,7 +16503,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F807" t="n">
-        <v>0.02544</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="808">
@@ -16523,7 +16523,7 @@
         <v>1.065</v>
       </c>
       <c r="F808" t="n">
-        <v>0.0426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="809">
@@ -16543,7 +16543,7 @@
         <v>1.14</v>
       </c>
       <c r="F809" t="n">
-        <v>0.04559999999999999</v>
+        <v>45.59999999999999</v>
       </c>
     </row>
     <row r="810">
@@ -16563,7 +16563,7 @@
         <v>0.99</v>
       </c>
       <c r="F810" t="n">
-        <v>0.03564000000000001</v>
+        <v>35.64000000000001</v>
       </c>
     </row>
     <row r="811">
@@ -16583,7 +16583,7 @@
         <v>1.02</v>
       </c>
       <c r="F811" t="n">
-        <v>0.0408</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="812">
@@ -16603,7 +16603,7 @@
         <v>1.125</v>
       </c>
       <c r="F812" t="n">
-        <v>0.045</v>
+        <v>45</v>
       </c>
     </row>
     <row r="813">
@@ -16623,7 +16623,7 @@
         <v>1.08</v>
       </c>
       <c r="F813" t="n">
-        <v>0.0432</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="814">
@@ -16643,7 +16643,7 @@
         <v>0.885</v>
       </c>
       <c r="F814" t="n">
-        <v>0.03186000000000001</v>
+        <v>31.86000000000001</v>
       </c>
     </row>
     <row r="815">
@@ -16663,7 +16663,7 @@
         <v>0.735</v>
       </c>
       <c r="F815" t="n">
-        <v>0.02058</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="816">
@@ -16683,7 +16683,7 @@
         <v>0.6</v>
       </c>
       <c r="F816" t="n">
-        <v>0.0144</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="817">
@@ -16703,7 +16703,7 @@
         <v>0.465</v>
       </c>
       <c r="F817" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="818">
@@ -16723,7 +16723,7 @@
         <v>0.42</v>
       </c>
       <c r="F818" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="819">
@@ -16743,7 +16743,7 @@
         <v>0.435</v>
       </c>
       <c r="F819" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="820">
@@ -16763,7 +16763,7 @@
         <v>0.495</v>
       </c>
       <c r="F820" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="821">
@@ -16783,7 +16783,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F821" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="822">
@@ -16803,7 +16803,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F822" t="n">
-        <v>0.01848</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="823">
@@ -16823,7 +16823,7 @@
         <v>0.855</v>
       </c>
       <c r="F823" t="n">
-        <v>0.02736</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="824">
@@ -16843,7 +16843,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="F824" t="n">
-        <v>0.03348</v>
+        <v>33.48</v>
       </c>
     </row>
     <row r="825">
@@ -16863,7 +16863,7 @@
         <v>0.945</v>
       </c>
       <c r="F825" t="n">
-        <v>0.03402</v>
+        <v>34.02</v>
       </c>
     </row>
     <row r="826">
@@ -16883,7 +16883,7 @@
         <v>0.75</v>
       </c>
       <c r="F826" t="n">
-        <v>0.024</v>
+        <v>24</v>
       </c>
     </row>
     <row r="827">
@@ -16903,7 +16903,7 @@
         <v>0.645</v>
       </c>
       <c r="F827" t="n">
-        <v>0.01806</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="828">
@@ -16923,7 +16923,7 @@
         <v>0.57</v>
       </c>
       <c r="F828" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="829">
@@ -16943,7 +16943,7 @@
         <v>0.45</v>
       </c>
       <c r="F829" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="830">
@@ -16963,7 +16963,7 @@
         <v>0.345</v>
       </c>
       <c r="F830" t="n">
-        <v>0.0069</v>
+        <v>6.899999999999999</v>
       </c>
     </row>
     <row r="831">
@@ -16983,7 +16983,7 @@
         <v>0.21</v>
       </c>
       <c r="F831" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="832">
@@ -17003,7 +17003,7 @@
         <v>0.135</v>
       </c>
       <c r="F832" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="833">
@@ -17023,7 +17023,7 @@
         <v>0.075</v>
       </c>
       <c r="F833" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="834">
@@ -17043,7 +17043,7 @@
         <v>0.09</v>
       </c>
       <c r="F834" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="835">
@@ -17063,7 +17063,7 @@
         <v>0.15</v>
       </c>
       <c r="F835" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="836">
@@ -17083,7 +17083,7 @@
         <v>0.27</v>
       </c>
       <c r="F836" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="837">
@@ -17103,7 +17103,7 @@
         <v>0.48</v>
       </c>
       <c r="F837" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="838">
@@ -17123,7 +17123,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F838" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="839">
@@ -17143,7 +17143,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F839" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="840">
@@ -17163,7 +17163,7 @@
         <v>0.585</v>
       </c>
       <c r="F840" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="841">
@@ -17183,7 +17183,7 @@
         <v>0.735</v>
       </c>
       <c r="F841" t="n">
-        <v>0.02352</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="842">
@@ -17203,7 +17203,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F842" t="n">
-        <v>0.03294</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="843">
@@ -17223,7 +17223,7 @@
         <v>0.84</v>
       </c>
       <c r="F843" t="n">
-        <v>0.02688</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="844">
@@ -17243,7 +17243,7 @@
         <v>0.96</v>
       </c>
       <c r="F844" t="n">
-        <v>0.03456</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="845">
@@ -17263,7 +17263,7 @@
         <v>1.05</v>
       </c>
       <c r="F845" t="n">
-        <v>0.042</v>
+        <v>42</v>
       </c>
     </row>
     <row r="846">
@@ -17283,7 +17283,7 @@
         <v>1.065</v>
       </c>
       <c r="F846" t="n">
-        <v>0.0426</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="847">
@@ -17303,7 +17303,7 @@
         <v>1.02</v>
       </c>
       <c r="F847" t="n">
-        <v>0.0408</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="848">
@@ -17323,7 +17323,7 @@
         <v>0.84</v>
       </c>
       <c r="F848" t="n">
-        <v>0.02688</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="849">
@@ -17343,7 +17343,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F849" t="n">
-        <v>0.02592</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="850">
@@ -17363,7 +17363,7 @@
         <v>0.78</v>
       </c>
       <c r="F850" t="n">
-        <v>0.02496</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="851">
@@ -17383,7 +17383,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F851" t="n">
-        <v>0.02544</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="852">
@@ -17403,7 +17403,7 @@
         <v>0.735</v>
       </c>
       <c r="F852" t="n">
-        <v>0.02058</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="853">
@@ -17423,7 +17423,7 @@
         <v>0.63</v>
       </c>
       <c r="F853" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="854">
@@ -17443,7 +17443,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F854" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="855">
@@ -17463,7 +17463,7 @@
         <v>0.495</v>
       </c>
       <c r="F855" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="856">
@@ -17483,7 +17483,7 @@
         <v>0.435</v>
       </c>
       <c r="F856" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="857">
@@ -17503,7 +17503,7 @@
         <v>0.39</v>
       </c>
       <c r="F857" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="858">
@@ -17523,7 +17523,7 @@
         <v>0.375</v>
       </c>
       <c r="F858" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="859">
@@ -17543,7 +17543,7 @@
         <v>0.33</v>
       </c>
       <c r="F859" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="860">
@@ -17563,7 +17563,7 @@
         <v>0.3</v>
       </c>
       <c r="F860" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="861">
@@ -17583,7 +17583,7 @@
         <v>0.285</v>
       </c>
       <c r="F861" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="862">
@@ -17603,7 +17603,7 @@
         <v>0.24</v>
       </c>
       <c r="F862" t="n">
-        <v>0.00384</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="863">
@@ -17623,7 +17623,7 @@
         <v>0.195</v>
       </c>
       <c r="F863" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="864">
@@ -17643,7 +17643,7 @@
         <v>0.18</v>
       </c>
       <c r="F864" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="865">
@@ -17663,7 +17663,7 @@
         <v>0.135</v>
       </c>
       <c r="F865" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="866">
@@ -17683,7 +17683,7 @@
         <v>0.12</v>
       </c>
       <c r="F866" t="n">
-        <v>0.00144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="867">
@@ -17703,7 +17703,7 @@
         <v>0.105</v>
       </c>
       <c r="F867" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="868">
@@ -17723,7 +17723,7 @@
         <v>0.105</v>
       </c>
       <c r="F868" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="869">
@@ -17743,7 +17743,7 @@
         <v>0.09</v>
       </c>
       <c r="F869" t="n">
-        <v>0.00108</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="870">
@@ -17763,7 +17763,7 @@
         <v>0.06</v>
       </c>
       <c r="F870" t="n">
-        <v>0.00048</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="871">
@@ -17783,7 +17783,7 @@
         <v>0.03</v>
       </c>
       <c r="F871" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="872">
@@ -17803,7 +17803,7 @@
         <v>0.015</v>
       </c>
       <c r="F872" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="873">
@@ -17863,7 +17863,7 @@
         <v>0.015</v>
       </c>
       <c r="F875" t="n">
-        <v>0.00012</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="876">
@@ -17883,7 +17883,7 @@
         <v>0.03</v>
       </c>
       <c r="F876" t="n">
-        <v>0.00024</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="877">
@@ -17903,7 +17903,7 @@
         <v>0.105</v>
       </c>
       <c r="F877" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="878">
@@ -17923,7 +17923,7 @@
         <v>0.18</v>
       </c>
       <c r="F878" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="879">
@@ -17943,7 +17943,7 @@
         <v>0.195</v>
       </c>
       <c r="F879" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="880">
@@ -17963,7 +17963,7 @@
         <v>0.225</v>
       </c>
       <c r="F880" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="881">
@@ -17983,7 +17983,7 @@
         <v>0.255</v>
       </c>
       <c r="F881" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="882">
@@ -18003,7 +18003,7 @@
         <v>0.285</v>
       </c>
       <c r="F882" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="883">
@@ -18023,7 +18023,7 @@
         <v>0.285</v>
       </c>
       <c r="F883" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="884">
@@ -18043,7 +18043,7 @@
         <v>0.285</v>
       </c>
       <c r="F884" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="885">
@@ -18063,7 +18063,7 @@
         <v>0.27</v>
       </c>
       <c r="F885" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="886">
@@ -18083,7 +18083,7 @@
         <v>0.24</v>
       </c>
       <c r="F886" t="n">
-        <v>0.00384</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="887">
@@ -18103,7 +18103,7 @@
         <v>0.195</v>
       </c>
       <c r="F887" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="888">
@@ -18123,7 +18123,7 @@
         <v>0.18</v>
       </c>
       <c r="F888" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="889">
@@ -18143,7 +18143,7 @@
         <v>0.165</v>
       </c>
       <c r="F889" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="890">
@@ -18163,7 +18163,7 @@
         <v>0.135</v>
       </c>
       <c r="F890" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="891">
@@ -18183,7 +18183,7 @@
         <v>0.105</v>
       </c>
       <c r="F891" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="892">
@@ -18203,7 +18203,7 @@
         <v>0.075</v>
       </c>
       <c r="F892" t="n">
-        <v>0.0009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="893">
@@ -18223,7 +18223,7 @@
         <v>0.075</v>
       </c>
       <c r="F893" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="894">
@@ -18243,7 +18243,7 @@
         <v>0.105</v>
       </c>
       <c r="F894" t="n">
-        <v>0.00126</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="895">
@@ -18263,7 +18263,7 @@
         <v>0.18</v>
       </c>
       <c r="F895" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="896">
@@ -18283,7 +18283,7 @@
         <v>0.195</v>
       </c>
       <c r="F896" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="897">
@@ -18303,7 +18303,7 @@
         <v>0.255</v>
       </c>
       <c r="F897" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="898">
@@ -18323,7 +18323,7 @@
         <v>0.27</v>
       </c>
       <c r="F898" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="899">
@@ -18343,7 +18343,7 @@
         <v>0.3</v>
       </c>
       <c r="F899" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="900">
@@ -18363,7 +18363,7 @@
         <v>0.285</v>
       </c>
       <c r="F900" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="901">
@@ -18383,7 +18383,7 @@
         <v>0.285</v>
       </c>
       <c r="F901" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="902">
@@ -18403,7 +18403,7 @@
         <v>0.285</v>
       </c>
       <c r="F902" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="903">
@@ -18423,7 +18423,7 @@
         <v>0.285</v>
       </c>
       <c r="F903" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="904">
@@ -18443,7 +18443,7 @@
         <v>0.315</v>
       </c>
       <c r="F904" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="905">
@@ -18463,7 +18463,7 @@
         <v>0.345</v>
       </c>
       <c r="F905" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="906">
@@ -18483,7 +18483,7 @@
         <v>0.36</v>
       </c>
       <c r="F906" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="907">
@@ -18503,7 +18503,7 @@
         <v>0.375</v>
       </c>
       <c r="F907" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="908">
@@ -18523,7 +18523,7 @@
         <v>0.375</v>
       </c>
       <c r="F908" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="909">
@@ -18543,7 +18543,7 @@
         <v>0.375</v>
       </c>
       <c r="F909" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="910">
@@ -18563,7 +18563,7 @@
         <v>0.39</v>
       </c>
       <c r="F910" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="911">
@@ -18583,7 +18583,7 @@
         <v>0.39</v>
       </c>
       <c r="F911" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="912">
@@ -18603,7 +18603,7 @@
         <v>0.375</v>
       </c>
       <c r="F912" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="913">
@@ -18623,7 +18623,7 @@
         <v>0.39</v>
       </c>
       <c r="F913" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="914">
@@ -18643,7 +18643,7 @@
         <v>0.39</v>
       </c>
       <c r="F914" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="915">
@@ -18663,7 +18663,7 @@
         <v>0.375</v>
       </c>
       <c r="F915" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="916">
@@ -18683,7 +18683,7 @@
         <v>0.39</v>
       </c>
       <c r="F916" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="917">
@@ -18703,7 +18703,7 @@
         <v>0.39</v>
       </c>
       <c r="F917" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="918">
@@ -18723,7 +18723,7 @@
         <v>0.39</v>
       </c>
       <c r="F918" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="919">
@@ -18743,7 +18743,7 @@
         <v>0.39</v>
       </c>
       <c r="F919" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="920">
@@ -18763,7 +18763,7 @@
         <v>0.405</v>
       </c>
       <c r="F920" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="921">
@@ -18783,7 +18783,7 @@
         <v>0.435</v>
       </c>
       <c r="F921" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="922">
@@ -18803,7 +18803,7 @@
         <v>0.465</v>
       </c>
       <c r="F922" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="923">
@@ -18823,7 +18823,7 @@
         <v>0.525</v>
       </c>
       <c r="F923" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="924">
@@ -18843,7 +18843,7 @@
         <v>0.57</v>
       </c>
       <c r="F924" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="925">
@@ -18863,7 +18863,7 @@
         <v>0.57</v>
       </c>
       <c r="F925" t="n">
-        <v>0.01368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="926">
@@ -18883,7 +18883,7 @@
         <v>0.63</v>
       </c>
       <c r="F926" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="927">
@@ -18903,7 +18903,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F927" t="n">
-        <v>0.0189</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="928">
@@ -18923,7 +18923,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F928" t="n">
-        <v>0.01848</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="929">
@@ -18943,7 +18943,7 @@
         <v>0.615</v>
       </c>
       <c r="F929" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="930">
@@ -18963,7 +18963,7 @@
         <v>0.54</v>
       </c>
       <c r="F930" t="n">
-        <v>0.01296</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="931">
@@ -18983,7 +18983,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F931" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="932">
@@ -19003,7 +19003,7 @@
         <v>0.525</v>
       </c>
       <c r="F932" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="933">
@@ -19023,7 +19023,7 @@
         <v>0.495</v>
       </c>
       <c r="F933" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="934">
@@ -19043,7 +19043,7 @@
         <v>0.51</v>
       </c>
       <c r="F934" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="935">
@@ -19063,7 +19063,7 @@
         <v>0.54</v>
       </c>
       <c r="F935" t="n">
-        <v>0.01296</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="936">
@@ -19083,7 +19083,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F936" t="n">
-        <v>0.01332</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="937">
@@ -19103,7 +19103,7 @@
         <v>0.525</v>
       </c>
       <c r="F937" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="938">
@@ -19123,7 +19123,7 @@
         <v>0.585</v>
       </c>
       <c r="F938" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="939">
@@ -19143,7 +19143,7 @@
         <v>0.585</v>
       </c>
       <c r="F939" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="940">
@@ -19163,7 +19163,7 @@
         <v>0.645</v>
       </c>
       <c r="F940" t="n">
-        <v>0.01806</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="941">
@@ -19183,7 +19183,7 @@
         <v>0.615</v>
       </c>
       <c r="F941" t="n">
-        <v>0.01476</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="942">
@@ -19203,7 +19203,7 @@
         <v>0.585</v>
       </c>
       <c r="F942" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="943">
@@ -19223,7 +19223,7 @@
         <v>0.525</v>
       </c>
       <c r="F943" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="944">
@@ -19243,7 +19243,7 @@
         <v>0.615</v>
       </c>
       <c r="F944" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="945">
@@ -19263,7 +19263,7 @@
         <v>0.615</v>
       </c>
       <c r="F945" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="946">
@@ -19283,7 +19283,7 @@
         <v>0.63</v>
       </c>
       <c r="F946" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="947">
@@ -19303,7 +19303,7 @@
         <v>0.63</v>
       </c>
       <c r="F947" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="948">
@@ -19323,7 +19323,7 @@
         <v>0.585</v>
       </c>
       <c r="F948" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="949">
@@ -19343,7 +19343,7 @@
         <v>0.465</v>
       </c>
       <c r="F949" t="n">
-        <v>0.01116</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="950">
@@ -19363,7 +19363,7 @@
         <v>0.465</v>
       </c>
       <c r="F950" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="951">
@@ -19383,7 +19383,7 @@
         <v>0.6</v>
       </c>
       <c r="F951" t="n">
-        <v>0.0168</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="952">
@@ -19403,7 +19403,7 @@
         <v>0.6</v>
       </c>
       <c r="F952" t="n">
-        <v>0.0168</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="953">
@@ -19423,7 +19423,7 @@
         <v>0.615</v>
       </c>
       <c r="F953" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="954">
@@ -19443,7 +19443,7 @@
         <v>0.63</v>
       </c>
       <c r="F954" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="955">
@@ -19463,7 +19463,7 @@
         <v>0.615</v>
       </c>
       <c r="F955" t="n">
-        <v>0.01722</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="956">
@@ -19483,7 +19483,7 @@
         <v>0.6</v>
       </c>
       <c r="F956" t="n">
-        <v>0.0168</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="957">
@@ -19503,7 +19503,7 @@
         <v>0.63</v>
       </c>
       <c r="F957" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="958">
@@ -19523,7 +19523,7 @@
         <v>0.54</v>
       </c>
       <c r="F958" t="n">
-        <v>0.01296</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="959">
@@ -19543,7 +19543,7 @@
         <v>0.51</v>
       </c>
       <c r="F959" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="960">
@@ -19563,7 +19563,7 @@
         <v>0.63</v>
       </c>
       <c r="F960" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="961">
@@ -19583,7 +19583,7 @@
         <v>0.63</v>
       </c>
       <c r="F961" t="n">
-        <v>0.01764</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="962">
@@ -19603,7 +19603,7 @@
         <v>0.585</v>
       </c>
       <c r="F962" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="963">
@@ -19623,7 +19623,7 @@
         <v>0.585</v>
       </c>
       <c r="F963" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="964">
@@ -19643,7 +19643,7 @@
         <v>0.585</v>
       </c>
       <c r="F964" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="965">
@@ -19663,7 +19663,7 @@
         <v>0.585</v>
       </c>
       <c r="F965" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="966">
@@ -19683,7 +19683,7 @@
         <v>0.585</v>
       </c>
       <c r="F966" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="967">
@@ -19703,7 +19703,7 @@
         <v>0.585</v>
       </c>
       <c r="F967" t="n">
-        <v>0.01404</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="968">
@@ -19723,7 +19723,7 @@
         <v>0.525</v>
       </c>
       <c r="F968" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="969">
@@ -19743,7 +19743,7 @@
         <v>0.48</v>
       </c>
       <c r="F969" t="n">
-        <v>0.01152</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="970">
@@ -19763,7 +19763,7 @@
         <v>0.465</v>
       </c>
       <c r="F970" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="971">
@@ -19783,7 +19783,7 @@
         <v>0.405</v>
       </c>
       <c r="F971" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="972">
@@ -19803,7 +19803,7 @@
         <v>0.36</v>
       </c>
       <c r="F972" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="973">
@@ -19823,7 +19823,7 @@
         <v>0.285</v>
       </c>
       <c r="F973" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="974">
@@ -19843,7 +19843,7 @@
         <v>0.255</v>
       </c>
       <c r="F974" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="975">
@@ -19863,7 +19863,7 @@
         <v>0.21</v>
       </c>
       <c r="F975" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="976">
@@ -19883,7 +19883,7 @@
         <v>0.18</v>
       </c>
       <c r="F976" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="977">
@@ -19903,7 +19903,7 @@
         <v>0.18</v>
       </c>
       <c r="F977" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="978">
@@ -19923,7 +19923,7 @@
         <v>0.195</v>
       </c>
       <c r="F978" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="979">
@@ -19943,7 +19943,7 @@
         <v>0.225</v>
       </c>
       <c r="F979" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="980">
@@ -19963,7 +19963,7 @@
         <v>0.375</v>
       </c>
       <c r="F980" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="981">
@@ -19983,7 +19983,7 @@
         <v>0.45</v>
       </c>
       <c r="F981" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="982">
@@ -20003,7 +20003,7 @@
         <v>0.45</v>
       </c>
       <c r="F982" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="983">
@@ -20023,7 +20023,7 @@
         <v>0.45</v>
       </c>
       <c r="F983" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="984">
@@ -20043,7 +20043,7 @@
         <v>0.435</v>
       </c>
       <c r="F984" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="985">
@@ -20063,7 +20063,7 @@
         <v>0.375</v>
       </c>
       <c r="F985" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="986">
@@ -20083,7 +20083,7 @@
         <v>0.3</v>
       </c>
       <c r="F986" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="987">
@@ -20103,7 +20103,7 @@
         <v>0.27</v>
       </c>
       <c r="F987" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="988">
@@ -20123,7 +20123,7 @@
         <v>0.21</v>
       </c>
       <c r="F988" t="n">
-        <v>0.00336</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="989">
@@ -20143,7 +20143,7 @@
         <v>0.195</v>
       </c>
       <c r="F989" t="n">
-        <v>0.00234</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="990">
@@ -20163,7 +20163,7 @@
         <v>0.18</v>
       </c>
       <c r="F990" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="991">
@@ -20183,7 +20183,7 @@
         <v>0.165</v>
       </c>
       <c r="F991" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="992">
@@ -20203,7 +20203,7 @@
         <v>0.15</v>
       </c>
       <c r="F992" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="993">
@@ -20223,7 +20223,7 @@
         <v>0.15</v>
       </c>
       <c r="F993" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="994">
@@ -20243,7 +20243,7 @@
         <v>0.18</v>
       </c>
       <c r="F994" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="995">
@@ -20263,7 +20263,7 @@
         <v>0.3</v>
       </c>
       <c r="F995" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="996">
@@ -20283,7 +20283,7 @@
         <v>0.42</v>
       </c>
       <c r="F996" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="997">
@@ -20303,7 +20303,7 @@
         <v>0.495</v>
       </c>
       <c r="F997" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="998">
@@ -20323,7 +20323,7 @@
         <v>0.51</v>
       </c>
       <c r="F998" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="999">
@@ -20343,7 +20343,7 @@
         <v>0.495</v>
       </c>
       <c r="F999" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="1000">
@@ -20363,7 +20363,7 @@
         <v>0.465</v>
       </c>
       <c r="F1000" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1001">
@@ -20383,7 +20383,7 @@
         <v>0.465</v>
       </c>
       <c r="F1001" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1002">
@@ -20403,7 +20403,7 @@
         <v>0.465</v>
       </c>
       <c r="F1002" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1003">
@@ -20423,7 +20423,7 @@
         <v>0.51</v>
       </c>
       <c r="F1003" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="1004">
@@ -20443,7 +20443,7 @@
         <v>0.525</v>
       </c>
       <c r="F1004" t="n">
-        <v>0.0126</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="1005">
@@ -20463,7 +20463,7 @@
         <v>0.51</v>
       </c>
       <c r="F1005" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="1006">
@@ -20483,7 +20483,7 @@
         <v>0.495</v>
       </c>
       <c r="F1006" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="1007">
@@ -20503,7 +20503,7 @@
         <v>0.495</v>
       </c>
       <c r="F1007" t="n">
-        <v>0.01188</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="1008">
@@ -20523,7 +20523,7 @@
         <v>0.465</v>
       </c>
       <c r="F1008" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1009">
@@ -20543,7 +20543,7 @@
         <v>0.45</v>
       </c>
       <c r="F1009" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1010">
@@ -20563,7 +20563,7 @@
         <v>0.39</v>
       </c>
       <c r="F1010" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1011">
@@ -20583,7 +20583,7 @@
         <v>0.33</v>
       </c>
       <c r="F1011" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1012">
@@ -20603,7 +20603,7 @@
         <v>0.3</v>
       </c>
       <c r="F1012" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="1013">
@@ -20623,7 +20623,7 @@
         <v>0.27</v>
       </c>
       <c r="F1013" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="1014">
@@ -20643,7 +20643,7 @@
         <v>0.225</v>
       </c>
       <c r="F1014" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1015">
@@ -20663,7 +20663,7 @@
         <v>0.195</v>
       </c>
       <c r="F1015" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="1016">
@@ -20683,7 +20683,7 @@
         <v>0.18</v>
       </c>
       <c r="F1016" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1017">
@@ -20703,7 +20703,7 @@
         <v>0.18</v>
       </c>
       <c r="F1017" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1018">
@@ -20723,7 +20723,7 @@
         <v>0.18</v>
       </c>
       <c r="F1018" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1019">
@@ -20743,7 +20743,7 @@
         <v>0.15</v>
       </c>
       <c r="F1019" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1020">
@@ -20763,7 +20763,7 @@
         <v>0.135</v>
       </c>
       <c r="F1020" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="1021">
@@ -20783,7 +20783,7 @@
         <v>0.135</v>
       </c>
       <c r="F1021" t="n">
-        <v>0.00162</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="1022">
@@ -20803,7 +20803,7 @@
         <v>0.18</v>
       </c>
       <c r="F1022" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1023">
@@ -20823,7 +20823,7 @@
         <v>0.195</v>
       </c>
       <c r="F1023" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="1024">
@@ -20843,7 +20843,7 @@
         <v>0.255</v>
       </c>
       <c r="F1024" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1025">
@@ -20863,7 +20863,7 @@
         <v>0.27</v>
       </c>
       <c r="F1025" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="1026">
@@ -20883,7 +20883,7 @@
         <v>0.3</v>
       </c>
       <c r="F1026" t="n">
-        <v>0.0048</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="1027">
@@ -20903,7 +20903,7 @@
         <v>0.375</v>
       </c>
       <c r="F1027" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1028">
@@ -20923,7 +20923,7 @@
         <v>0.375</v>
       </c>
       <c r="F1028" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1029">
@@ -20943,7 +20943,7 @@
         <v>0.36</v>
       </c>
       <c r="F1029" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="1030">
@@ -20963,7 +20963,7 @@
         <v>0.33</v>
       </c>
       <c r="F1030" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1031">
@@ -20983,7 +20983,7 @@
         <v>0.33</v>
       </c>
       <c r="F1031" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1032">
@@ -21003,7 +21003,7 @@
         <v>0.375</v>
       </c>
       <c r="F1032" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1033">
@@ -21023,7 +21023,7 @@
         <v>0.405</v>
       </c>
       <c r="F1033" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1034">
@@ -21043,7 +21043,7 @@
         <v>0.465</v>
       </c>
       <c r="F1034" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1035">
@@ -21063,7 +21063,7 @@
         <v>0.39</v>
       </c>
       <c r="F1035" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1036">
@@ -21083,7 +21083,7 @@
         <v>0.375</v>
       </c>
       <c r="F1036" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1037">
@@ -21103,7 +21103,7 @@
         <v>0.375</v>
       </c>
       <c r="F1037" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1038">
@@ -21123,7 +21123,7 @@
         <v>0.345</v>
       </c>
       <c r="F1038" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1039">
@@ -21143,7 +21143,7 @@
         <v>0.285</v>
       </c>
       <c r="F1039" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="1040">
@@ -21163,7 +21163,7 @@
         <v>0.285</v>
       </c>
       <c r="F1040" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="1041">
@@ -21183,7 +21183,7 @@
         <v>0.24</v>
       </c>
       <c r="F1041" t="n">
-        <v>0.00384</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="1042">
@@ -21203,7 +21203,7 @@
         <v>0.195</v>
       </c>
       <c r="F1042" t="n">
-        <v>0.00312</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="1043">
@@ -21223,7 +21223,7 @@
         <v>0.18</v>
       </c>
       <c r="F1043" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1044">
@@ -21243,7 +21243,7 @@
         <v>0.18</v>
       </c>
       <c r="F1044" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1045">
@@ -21263,7 +21263,7 @@
         <v>0.195</v>
       </c>
       <c r="F1045" t="n">
-        <v>0.00234</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="1046">
@@ -21283,7 +21283,7 @@
         <v>0.255</v>
       </c>
       <c r="F1046" t="n">
-        <v>0.00408</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1047">
@@ -21303,7 +21303,7 @@
         <v>0.285</v>
       </c>
       <c r="F1047" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="1048">
@@ -21323,7 +21323,7 @@
         <v>0.285</v>
       </c>
       <c r="F1048" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="1049">
@@ -21343,7 +21343,7 @@
         <v>0.285</v>
       </c>
       <c r="F1049" t="n">
-        <v>0.00456</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="1050">
@@ -21363,7 +21363,7 @@
         <v>0.225</v>
       </c>
       <c r="F1050" t="n">
-        <v>0.0036</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1051">
@@ -21383,7 +21383,7 @@
         <v>0.18</v>
       </c>
       <c r="F1051" t="n">
-        <v>0.00216</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="1052">
@@ -21403,7 +21403,7 @@
         <v>0.15</v>
       </c>
       <c r="F1052" t="n">
-        <v>0.0018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1053">
@@ -21423,7 +21423,7 @@
         <v>0.165</v>
       </c>
       <c r="F1053" t="n">
-        <v>0.00198</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="1054">
@@ -21443,7 +21443,7 @@
         <v>0.435</v>
       </c>
       <c r="F1054" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1055">
@@ -21463,7 +21463,7 @@
         <v>0.435</v>
       </c>
       <c r="F1055" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1056">
@@ -21483,7 +21483,7 @@
         <v>0.435</v>
       </c>
       <c r="F1056" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1057">
@@ -21503,7 +21503,7 @@
         <v>0.42</v>
       </c>
       <c r="F1057" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1058">
@@ -21523,7 +21523,7 @@
         <v>0.435</v>
       </c>
       <c r="F1058" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1059">
@@ -21543,7 +21543,7 @@
         <v>0.45</v>
       </c>
       <c r="F1059" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1060">
@@ -21563,7 +21563,7 @@
         <v>0.465</v>
       </c>
       <c r="F1060" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1061">
@@ -21583,7 +21583,7 @@
         <v>0.45</v>
       </c>
       <c r="F1061" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1062">
@@ -21603,7 +21603,7 @@
         <v>0.465</v>
       </c>
       <c r="F1062" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1063">
@@ -21623,7 +21623,7 @@
         <v>0.465</v>
       </c>
       <c r="F1063" t="n">
-        <v>0.009299999999999999</v>
+        <v>9.299999999999999</v>
       </c>
     </row>
     <row r="1064">
@@ -21643,7 +21643,7 @@
         <v>0.45</v>
       </c>
       <c r="F1064" t="n">
-        <v>0.008999999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1065">
@@ -21663,7 +21663,7 @@
         <v>0.435</v>
       </c>
       <c r="F1065" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1066">
@@ -21683,7 +21683,7 @@
         <v>0.435</v>
       </c>
       <c r="F1066" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1067">
@@ -21703,7 +21703,7 @@
         <v>0.435</v>
       </c>
       <c r="F1067" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1068">
@@ -21723,7 +21723,7 @@
         <v>0.42</v>
       </c>
       <c r="F1068" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1069">
@@ -21743,7 +21743,7 @@
         <v>0.42</v>
       </c>
       <c r="F1069" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1070">
@@ -21763,7 +21763,7 @@
         <v>0.405</v>
       </c>
       <c r="F1070" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1071">
@@ -21783,7 +21783,7 @@
         <v>0.435</v>
       </c>
       <c r="F1071" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1072">
@@ -21803,7 +21803,7 @@
         <v>0.435</v>
       </c>
       <c r="F1072" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1073">
@@ -21823,7 +21823,7 @@
         <v>0.435</v>
       </c>
       <c r="F1073" t="n">
-        <v>0.008699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="1074">
@@ -21843,7 +21843,7 @@
         <v>0.42</v>
       </c>
       <c r="F1074" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1075">
@@ -21863,7 +21863,7 @@
         <v>0.42</v>
       </c>
       <c r="F1075" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1076">
@@ -21883,7 +21883,7 @@
         <v>0.42</v>
       </c>
       <c r="F1076" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1077">
@@ -21903,7 +21903,7 @@
         <v>0.405</v>
       </c>
       <c r="F1077" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1078">
@@ -21923,7 +21923,7 @@
         <v>0.39</v>
       </c>
       <c r="F1078" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1079">
@@ -21943,7 +21943,7 @@
         <v>0.375</v>
       </c>
       <c r="F1079" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1080">
@@ -21963,7 +21963,7 @@
         <v>0.375</v>
       </c>
       <c r="F1080" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1081">
@@ -21983,7 +21983,7 @@
         <v>0.36</v>
       </c>
       <c r="F1081" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="1082">
@@ -22003,7 +22003,7 @@
         <v>0.375</v>
       </c>
       <c r="F1082" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1083">
@@ -22023,7 +22023,7 @@
         <v>0.375</v>
       </c>
       <c r="F1083" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1084">
@@ -22043,7 +22043,7 @@
         <v>0.375</v>
       </c>
       <c r="F1084" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1085">
@@ -22063,7 +22063,7 @@
         <v>0.39</v>
       </c>
       <c r="F1085" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1086">
@@ -22083,7 +22083,7 @@
         <v>0.39</v>
       </c>
       <c r="F1086" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1087">
@@ -22103,7 +22103,7 @@
         <v>0.405</v>
       </c>
       <c r="F1087" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1088">
@@ -22123,7 +22123,7 @@
         <v>0.42</v>
       </c>
       <c r="F1088" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1089">
@@ -22143,7 +22143,7 @@
         <v>0.42</v>
       </c>
       <c r="F1089" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1090">
@@ -22163,7 +22163,7 @@
         <v>0.42</v>
       </c>
       <c r="F1090" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1091">
@@ -22183,7 +22183,7 @@
         <v>0.405</v>
       </c>
       <c r="F1091" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1092">
@@ -22203,7 +22203,7 @@
         <v>0.405</v>
       </c>
       <c r="F1092" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1093">
@@ -22223,7 +22223,7 @@
         <v>0.405</v>
       </c>
       <c r="F1093" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1094">
@@ -22243,7 +22243,7 @@
         <v>0.405</v>
       </c>
       <c r="F1094" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1095">
@@ -22263,7 +22263,7 @@
         <v>0.405</v>
       </c>
       <c r="F1095" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1096">
@@ -22283,7 +22283,7 @@
         <v>0.405</v>
       </c>
       <c r="F1096" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1097">
@@ -22303,7 +22303,7 @@
         <v>0.405</v>
       </c>
       <c r="F1097" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1098">
@@ -22323,7 +22323,7 @@
         <v>0.39</v>
       </c>
       <c r="F1098" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1099">
@@ -22343,7 +22343,7 @@
         <v>0.39</v>
       </c>
       <c r="F1099" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1100">
@@ -22363,7 +22363,7 @@
         <v>0.39</v>
       </c>
       <c r="F1100" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1101">
@@ -22383,7 +22383,7 @@
         <v>0.39</v>
       </c>
       <c r="F1101" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1102">
@@ -22403,7 +22403,7 @@
         <v>0.39</v>
       </c>
       <c r="F1102" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1103">
@@ -22423,7 +22423,7 @@
         <v>0.39</v>
       </c>
       <c r="F1103" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1104">
@@ -22443,7 +22443,7 @@
         <v>0.39</v>
       </c>
       <c r="F1104" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1105">
@@ -22463,7 +22463,7 @@
         <v>0.39</v>
       </c>
       <c r="F1105" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1106">
@@ -22483,7 +22483,7 @@
         <v>0.39</v>
       </c>
       <c r="F1106" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1107">
@@ -22503,7 +22503,7 @@
         <v>0.405</v>
       </c>
       <c r="F1107" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1108">
@@ -22523,7 +22523,7 @@
         <v>0.405</v>
       </c>
       <c r="F1108" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1109">
@@ -22543,7 +22543,7 @@
         <v>0.39</v>
       </c>
       <c r="F1109" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1110">
@@ -22563,7 +22563,7 @@
         <v>0.405</v>
       </c>
       <c r="F1110" t="n">
-        <v>0.0081</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="1111">
@@ -22583,7 +22583,7 @@
         <v>0.42</v>
       </c>
       <c r="F1111" t="n">
-        <v>0.008399999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1112">
@@ -22603,7 +22603,7 @@
         <v>0.39</v>
       </c>
       <c r="F1112" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1113">
@@ -22623,7 +22623,7 @@
         <v>0.39</v>
       </c>
       <c r="F1113" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1114">
@@ -22643,7 +22643,7 @@
         <v>0.39</v>
       </c>
       <c r="F1114" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1115">
@@ -22663,7 +22663,7 @@
         <v>0.39</v>
       </c>
       <c r="F1115" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1116">
@@ -22683,7 +22683,7 @@
         <v>0.39</v>
       </c>
       <c r="F1116" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1117">
@@ -22703,7 +22703,7 @@
         <v>0.375</v>
       </c>
       <c r="F1117" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1118">
@@ -22723,7 +22723,7 @@
         <v>0.375</v>
       </c>
       <c r="F1118" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1119">
@@ -22743,7 +22743,7 @@
         <v>0.375</v>
       </c>
       <c r="F1119" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1120">
@@ -22763,7 +22763,7 @@
         <v>0.36</v>
       </c>
       <c r="F1120" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="1121">
@@ -22783,7 +22783,7 @@
         <v>0.36</v>
       </c>
       <c r="F1121" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1122">
@@ -22803,7 +22803,7 @@
         <v>0.36</v>
       </c>
       <c r="F1122" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1123">
@@ -22823,7 +22823,7 @@
         <v>0.375</v>
       </c>
       <c r="F1123" t="n">
-        <v>0.006</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1124">
@@ -22843,7 +22843,7 @@
         <v>0.375</v>
       </c>
       <c r="F1124" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1125">
@@ -22863,7 +22863,7 @@
         <v>0.375</v>
       </c>
       <c r="F1125" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1126">
@@ -22883,7 +22883,7 @@
         <v>0.36</v>
       </c>
       <c r="F1126" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="1127">
@@ -22903,7 +22903,7 @@
         <v>0.36</v>
       </c>
       <c r="F1127" t="n">
-        <v>0.0072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="1128">
@@ -22923,7 +22923,7 @@
         <v>0.36</v>
       </c>
       <c r="F1128" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1129">
@@ -22943,7 +22943,7 @@
         <v>0.33</v>
       </c>
       <c r="F1129" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1130">
@@ -22963,7 +22963,7 @@
         <v>0.315</v>
       </c>
       <c r="F1130" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="1131">
@@ -22983,7 +22983,7 @@
         <v>0.33</v>
       </c>
       <c r="F1131" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1132">
@@ -23003,7 +23003,7 @@
         <v>0.33</v>
       </c>
       <c r="F1132" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1133">
@@ -23023,7 +23023,7 @@
         <v>0.345</v>
       </c>
       <c r="F1133" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1134">
@@ -23043,7 +23043,7 @@
         <v>0.345</v>
       </c>
       <c r="F1134" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1135">
@@ -23063,7 +23063,7 @@
         <v>0.345</v>
       </c>
       <c r="F1135" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1136">
@@ -23083,7 +23083,7 @@
         <v>0.33</v>
       </c>
       <c r="F1136" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1137">
@@ -23103,7 +23103,7 @@
         <v>0.33</v>
       </c>
       <c r="F1137" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1138">
@@ -23123,7 +23123,7 @@
         <v>0.33</v>
       </c>
       <c r="F1138" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1139">
@@ -23143,7 +23143,7 @@
         <v>0.345</v>
       </c>
       <c r="F1139" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1140">
@@ -23163,7 +23163,7 @@
         <v>0.33</v>
       </c>
       <c r="F1140" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1141">
@@ -23183,7 +23183,7 @@
         <v>0.36</v>
       </c>
       <c r="F1141" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1142">
@@ -23203,7 +23203,7 @@
         <v>0.36</v>
       </c>
       <c r="F1142" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1143">
@@ -23223,7 +23223,7 @@
         <v>0.375</v>
       </c>
       <c r="F1143" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1144">
@@ -23243,7 +23243,7 @@
         <v>0.375</v>
       </c>
       <c r="F1144" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1145">
@@ -23263,7 +23263,7 @@
         <v>0.375</v>
       </c>
       <c r="F1145" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1146">
@@ -23283,7 +23283,7 @@
         <v>0.39</v>
       </c>
       <c r="F1146" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1147">
@@ -23303,7 +23303,7 @@
         <v>0.39</v>
       </c>
       <c r="F1147" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1148">
@@ -23323,7 +23323,7 @@
         <v>0.39</v>
       </c>
       <c r="F1148" t="n">
-        <v>0.007800000000000001</v>
+        <v>7.800000000000002</v>
       </c>
     </row>
     <row r="1149">
@@ -23343,7 +23343,7 @@
         <v>0.375</v>
       </c>
       <c r="F1149" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1150">
@@ -23363,7 +23363,7 @@
         <v>0.375</v>
       </c>
       <c r="F1150" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1151">
@@ -23383,7 +23383,7 @@
         <v>0.375</v>
       </c>
       <c r="F1151" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1152">
@@ -23403,7 +23403,7 @@
         <v>0.36</v>
       </c>
       <c r="F1152" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1153">
@@ -23423,7 +23423,7 @@
         <v>0.345</v>
       </c>
       <c r="F1153" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1154">
@@ -23443,7 +23443,7 @@
         <v>0.33</v>
       </c>
       <c r="F1154" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1155">
@@ -23463,7 +23463,7 @@
         <v>0.33</v>
       </c>
       <c r="F1155" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1156">
@@ -23483,7 +23483,7 @@
         <v>0.33</v>
       </c>
       <c r="F1156" t="n">
-        <v>0.005279999999999999</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="1157">
@@ -23503,7 +23503,7 @@
         <v>0.345</v>
       </c>
       <c r="F1157" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1158">
@@ -23523,7 +23523,7 @@
         <v>0.345</v>
       </c>
       <c r="F1158" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1159">
@@ -23543,7 +23543,7 @@
         <v>0.345</v>
       </c>
       <c r="F1159" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1160">
@@ -23563,7 +23563,7 @@
         <v>0.36</v>
       </c>
       <c r="F1160" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1161">
@@ -23583,7 +23583,7 @@
         <v>0.36</v>
       </c>
       <c r="F1161" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1162">
@@ -23603,7 +23603,7 @@
         <v>0.375</v>
       </c>
       <c r="F1162" t="n">
-        <v>0.006</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1163">
@@ -23623,7 +23623,7 @@
         <v>0.36</v>
       </c>
       <c r="F1163" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1164">
@@ -23643,7 +23643,7 @@
         <v>0.345</v>
       </c>
       <c r="F1164" t="n">
-        <v>0.00552</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="1165">
@@ -23663,7 +23663,7 @@
         <v>0.36</v>
       </c>
       <c r="F1165" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1166">
@@ -23683,7 +23683,7 @@
         <v>0.36</v>
       </c>
       <c r="F1166" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
     <row r="1167">
@@ -23703,7 +23703,7 @@
         <v>0.36</v>
       </c>
       <c r="F1167" t="n">
-        <v>0.005759999999999999</v>
+        <v>5.759999999999999</v>
       </c>
     </row>
   </sheetData>
